--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bergerw\Nextcloud\_bergerw\Lehre\2021 SS\Software Engineering 2\Abgaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\C#\SWE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD8AB4-A0B3-479A-A827-87A6B9675B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91128061-154B-4394-B80A-4DABF33F2F74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28230" yWindow="-1005" windowWidth="21720" windowHeight="15360" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -636,42 +627,42 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -679,116 +670,116 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,213 +790,249 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
       <c r="C26" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9">
+        <v>5</v>
+      </c>
       <c r="C28" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
       <c r="C31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
       <c r="C32" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
       <c r="C33" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9">
+        <v>2</v>
+      </c>
       <c r="C34" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
       <c r="C35" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
       <c r="C37" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9">
+        <v>2</v>
+      </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
       <c r="C43" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
       <c r="C45" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
       <c r="C48" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>31</v>
       </c>
@@ -1014,29 +1041,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>43</v>
       </c>
@@ -1045,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>39</v>
       </c>
@@ -1090,13 +1117,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="2">
         <f>IF(MIN(B9:B21)=1,SUM(B26:B61),0)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2">
         <f>SUM(C26:C61)</f>
